--- a/app/db.xlsx
+++ b/app/db.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,12 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>yh</t>
+          <t>用户名</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>ps</t>
+          <t>密码</t>
         </is>
       </c>
     </row>
@@ -471,9 +471,31 @@
           <t>你好</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>123</t>
+      <c r="B4" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>测试1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>nihao</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>测试2</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ceshi2</t>
         </is>
       </c>
     </row>

--- a/app/db.xlsx
+++ b/app/db.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,42 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>测试3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>测试4</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>测试5</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/app/db.xlsx
+++ b/app/db.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,94 +444,86 @@
           <t>密码</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>权限</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>测试1</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>123</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>用户</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>张三</t>
+          <t>测试2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>778899</v>
+        <v>123</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>用户</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>你好</t>
+          <t>测试3</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>123</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>测试1</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>nihao</t>
+          <t>测试4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>123</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>用户</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>测试2</t>
+          <t>测试5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ceshi2</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>测试3</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
           <t>123</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>测试4</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>测试5</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>123</t>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>管理员</t>
         </is>
       </c>
     </row>
